--- a/Center/New Microsoft Excel Worksheet.xlsx
+++ b/Center/New Microsoft Excel Worksheet.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speec\Desktop\New folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Recent work\Center\Center\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3EBDB0-A633-4BD6-9257-95E3F4D5C3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="256">
   <si>
     <t>مجموعه أ</t>
   </si>
@@ -97,23 +100,733 @@
   </si>
   <si>
     <t>كود المجموعه</t>
+  </si>
+  <si>
+    <t>احمد محمد الرجال</t>
+  </si>
+  <si>
+    <t>اسراء ايمن دياب</t>
+  </si>
+  <si>
+    <t>أميرة محمد رضوان</t>
+  </si>
+  <si>
+    <t>البراء عبد الفتاح عوض</t>
+  </si>
+  <si>
+    <t>بسملة منتصر</t>
+  </si>
+  <si>
+    <t>حسين محمد عطية</t>
+  </si>
+  <si>
+    <t>خالد جلال شعيب</t>
+  </si>
+  <si>
+    <t>رقيه محمود شاهين</t>
+  </si>
+  <si>
+    <t>ريان محمد  يوسف</t>
+  </si>
+  <si>
+    <t>السيد محمد عبد الجواد</t>
+  </si>
+  <si>
+    <t>عبد السلام احمد الصاوي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمر احمد حمام </t>
+  </si>
+  <si>
+    <t>كريمة محمود عبد الفتاح</t>
+  </si>
+  <si>
+    <t>لوجين محمد ابو السعود</t>
+  </si>
+  <si>
+    <t>محمد السعيد قنديل</t>
+  </si>
+  <si>
+    <t>محمد علي الدسوقي</t>
+  </si>
+  <si>
+    <t>مصطفي عبد الستار الخولي</t>
+  </si>
+  <si>
+    <t>ملك محمد نجم</t>
+  </si>
+  <si>
+    <t>ملك ياسر دربالة</t>
+  </si>
+  <si>
+    <t>ندي محمد علي كراوية</t>
+  </si>
+  <si>
+    <t>هبه خميس تركي</t>
+  </si>
+  <si>
+    <t>هنا عبد السلام عبيد</t>
+  </si>
+  <si>
+    <t>ياسر عصام خلفة</t>
+  </si>
+  <si>
+    <t>يوسف السيد الكويس</t>
+  </si>
+  <si>
+    <t>يارا السيد عامر</t>
+  </si>
+  <si>
+    <t>أحمد محمد محمود</t>
+  </si>
+  <si>
+    <t>محمد محمود مخيمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يوسف صالح </t>
+  </si>
+  <si>
+    <t>ندين على الطباخ</t>
+  </si>
+  <si>
+    <t>بسنت نصر شرف</t>
+  </si>
+  <si>
+    <t>رشا تامر</t>
+  </si>
+  <si>
+    <t>بدر محمد مندور</t>
+  </si>
+  <si>
+    <t>جنا سامح محمود بوكش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منة السعيد العيوطي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناجي أشرف أبو خالد </t>
+  </si>
+  <si>
+    <t>أحمد سعد زيدان</t>
+  </si>
+  <si>
+    <t>خالد جلال</t>
+  </si>
+  <si>
+    <t>أسماء سعد زيدان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريتاج عبد القادر </t>
+  </si>
+  <si>
+    <t>هنا حسين</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسماعيل محمد العروسي </t>
+  </si>
+  <si>
+    <t>يوسف أحمد زغلول</t>
+  </si>
+  <si>
+    <t>               1             </t>
+  </si>
+  <si>
+    <t>               2             </t>
+  </si>
+  <si>
+    <t>               3             </t>
+  </si>
+  <si>
+    <t>               4             </t>
+  </si>
+  <si>
+    <t>               5             </t>
+  </si>
+  <si>
+    <t>               6             </t>
+  </si>
+  <si>
+    <t>               7             </t>
+  </si>
+  <si>
+    <t>               8             </t>
+  </si>
+  <si>
+    <t>               9             </t>
+  </si>
+  <si>
+    <t>           10             </t>
+  </si>
+  <si>
+    <t>           11             </t>
+  </si>
+  <si>
+    <t>           12             </t>
+  </si>
+  <si>
+    <t>           13             </t>
+  </si>
+  <si>
+    <t>           14             </t>
+  </si>
+  <si>
+    <t>           15             </t>
+  </si>
+  <si>
+    <t>           16             </t>
+  </si>
+  <si>
+    <t>           17             </t>
+  </si>
+  <si>
+    <t>           18             </t>
+  </si>
+  <si>
+    <t>           19             </t>
+  </si>
+  <si>
+    <t>           20             </t>
+  </si>
+  <si>
+    <t>           21             </t>
+  </si>
+  <si>
+    <t>           22             </t>
+  </si>
+  <si>
+    <t>           23             </t>
+  </si>
+  <si>
+    <t>           24             </t>
+  </si>
+  <si>
+    <t>           25             </t>
+  </si>
+  <si>
+    <t>    26             </t>
+  </si>
+  <si>
+    <t>           27             </t>
+  </si>
+  <si>
+    <t>           28             </t>
+  </si>
+  <si>
+    <t>           29             </t>
+  </si>
+  <si>
+    <t>           30             </t>
+  </si>
+  <si>
+    <t>مجموعة الساعة /     12  أيام السبت والثلاثاء   الصف / 1 ع بنات +  بنين</t>
+  </si>
+  <si>
+    <t>مجموعة الساعة /       2    أيام الأثنين والخميس    الصف / 1 ثانوي</t>
+  </si>
+  <si>
+    <t>        1             </t>
+  </si>
+  <si>
+    <t>كريمة عيسى</t>
+  </si>
+  <si>
+    <t>        2             </t>
+  </si>
+  <si>
+    <t>ابراهيم قطب</t>
+  </si>
+  <si>
+    <t>        3             </t>
+  </si>
+  <si>
+    <t>اياد أحمد جاد</t>
+  </si>
+  <si>
+    <t>        4             </t>
+  </si>
+  <si>
+    <t>يوسف ابو يوسف</t>
+  </si>
+  <si>
+    <t>        5             </t>
+  </si>
+  <si>
+    <t>يوسف يونس</t>
+  </si>
+  <si>
+    <t>        6             </t>
+  </si>
+  <si>
+    <t>عبد الله رزق</t>
+  </si>
+  <si>
+    <t>        7             </t>
+  </si>
+  <si>
+    <t>شهاب خاطر</t>
+  </si>
+  <si>
+    <t>        8             </t>
+  </si>
+  <si>
+    <t>مينا نشأت</t>
+  </si>
+  <si>
+    <t>        9             </t>
+  </si>
+  <si>
+    <t>أحمد الطماوي</t>
+  </si>
+  <si>
+    <t>    10             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">يوسف البحراوي </t>
+  </si>
+  <si>
+    <t>    11             </t>
+  </si>
+  <si>
+    <t>عبد الرحمن هاشم</t>
+  </si>
+  <si>
+    <t>    12             </t>
+  </si>
+  <si>
+    <t>أحمد عبد الله يونس</t>
+  </si>
+  <si>
+    <t>    13             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد خاطر </t>
+  </si>
+  <si>
+    <t>    14             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد عطية </t>
+  </si>
+  <si>
+    <t>    15             </t>
+  </si>
+  <si>
+    <t>جلال ونس</t>
+  </si>
+  <si>
+    <t>    16             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هاني فؤاد </t>
+  </si>
+  <si>
+    <t>    17             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نورهان حماد </t>
+  </si>
+  <si>
+    <t>    18             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">منة مراد </t>
+  </si>
+  <si>
+    <t>    19             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شهد البحراوي </t>
+  </si>
+  <si>
+    <t>    20             </t>
+  </si>
+  <si>
+    <t>نور أبو عيطة</t>
+  </si>
+  <si>
+    <t>    21             </t>
+  </si>
+  <si>
+    <t>مريم جابر</t>
+  </si>
+  <si>
+    <t>    22             </t>
+  </si>
+  <si>
+    <t>اسراء رجب ابراهيم</t>
+  </si>
+  <si>
+    <t>    23             </t>
+  </si>
+  <si>
+    <t>شهد عطية</t>
+  </si>
+  <si>
+    <t>    24             </t>
+  </si>
+  <si>
+    <t>ندى فؤاد حمادة</t>
+  </si>
+  <si>
+    <t>    25             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد ربيع </t>
+  </si>
+  <si>
+    <t>علاء أبو الخير</t>
+  </si>
+  <si>
+    <t>    27             </t>
+  </si>
+  <si>
+    <t>السيد ياسر</t>
+  </si>
+  <si>
+    <t>    28             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد محمد أحمد سليم </t>
+  </si>
+  <si>
+    <t>    29             </t>
+  </si>
+  <si>
+    <t>كريم طارق ابو غنيمة</t>
+  </si>
+  <si>
+    <t>    30             </t>
+  </si>
+  <si>
+    <t>شريف عصام سعد</t>
+  </si>
+  <si>
+    <t>    31             </t>
+  </si>
+  <si>
+    <t>حازم ياسر نعيم</t>
+  </si>
+  <si>
+    <t>    32             </t>
+  </si>
+  <si>
+    <t>سماح السيد ندا</t>
+  </si>
+  <si>
+    <t>    33             </t>
+  </si>
+  <si>
+    <t>محمود محمد هلال</t>
+  </si>
+  <si>
+    <t>مجموعة الساعة /      4       أيام الأثنين والخميس      الصف / 3 ثانوي</t>
+  </si>
+  <si>
+    <t>احمد رجب الشرقاوي</t>
+  </si>
+  <si>
+    <t>ايهاب فرحات</t>
+  </si>
+  <si>
+    <t>جمال ربيع</t>
+  </si>
+  <si>
+    <t>حمدي المرشدي</t>
+  </si>
+  <si>
+    <t>رفعت حسين</t>
+  </si>
+  <si>
+    <t>عبد الله صلاح</t>
+  </si>
+  <si>
+    <t>عمر صلاح</t>
+  </si>
+  <si>
+    <t>محمد السرساوي</t>
+  </si>
+  <si>
+    <t>محمد فتحي محمد</t>
+  </si>
+  <si>
+    <t>عبد الرحمن ماهر عبد الرحمن</t>
+  </si>
+  <si>
+    <t>احمد وائل</t>
+  </si>
+  <si>
+    <t>علاء خالد الطحاوي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد عبد الجواد  خليل </t>
+  </si>
+  <si>
+    <t>مجموعة الساعة /      4       أيام الأحد والأربعاء     الصف / 3 ثانوي</t>
+  </si>
+  <si>
+    <t>تغريد محمد عبد الباقي</t>
+  </si>
+  <si>
+    <t>منة عبد الوهاب</t>
+  </si>
+  <si>
+    <t>وسام الرشيدي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ياسمين أشرف </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسرين على </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نورهان علي عبد السميع </t>
+  </si>
+  <si>
+    <t>منه مصطفي عبد الوهاب</t>
+  </si>
+  <si>
+    <t>وسام السيد الرشيدي</t>
+  </si>
+  <si>
+    <t>ياسمين أشرف ابو خضرة</t>
+  </si>
+  <si>
+    <t>نسرين علي</t>
+  </si>
+  <si>
+    <t>نورهان على</t>
+  </si>
+  <si>
+    <t>أحمد وائل</t>
+  </si>
+  <si>
+    <t>محمد عبد الجواد</t>
+  </si>
+  <si>
+    <t>عبد الرحمن ماهر</t>
+  </si>
+  <si>
+    <t>علاء الطماوي</t>
+  </si>
+  <si>
+    <t>مجموعة الساعة /        3     أيام الأثنين والخميس      الصف / 2 ثانوي</t>
+  </si>
+  <si>
+    <t>احمد عبد الجواد خليل</t>
+  </si>
+  <si>
+    <t>عبد الرحمن احمد راشد</t>
+  </si>
+  <si>
+    <t>عبد الرحمن احمد سعيد جميل</t>
+  </si>
+  <si>
+    <t>عبد الرحمن محمد عوض</t>
+  </si>
+  <si>
+    <t>عبد الرحمن وليد عطا</t>
+  </si>
+  <si>
+    <t>عبد الرحمن محمد عبد العال</t>
+  </si>
+  <si>
+    <t>يوسف خليل يوسف</t>
+  </si>
+  <si>
+    <t>محمد الشحات أبو طالب</t>
+  </si>
+  <si>
+    <t>محمد أحمد سنكل</t>
+  </si>
+  <si>
+    <t>إبراهيم محمد سليمان</t>
+  </si>
+  <si>
+    <t>محمد حمدي حماد</t>
+  </si>
+  <si>
+    <t>محمد  على تركي</t>
+  </si>
+  <si>
+    <t>طارق الركايبي</t>
+  </si>
+  <si>
+    <t>فتحي أبو رفيعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خالد السعيد سلام </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رؤى محمد القاضي </t>
+  </si>
+  <si>
+    <t>هاجر محمد ندا</t>
+  </si>
+  <si>
+    <t>نور الغطاس</t>
+  </si>
+  <si>
+    <t>هنا الطحان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مريم الرحماني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نور السيد الخطيب </t>
+  </si>
+  <si>
+    <t>سارة باسم حجاج</t>
+  </si>
+  <si>
+    <t>حبيبة خليل الديب</t>
+  </si>
+  <si>
+    <t>السيد عبد العال</t>
+  </si>
+  <si>
+    <t>السعيد اشرف سلطان</t>
+  </si>
+  <si>
+    <t>           26             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أحمد سامح صلاح </t>
+  </si>
+  <si>
+    <t>عبد الرحمن وليد ياقوت</t>
+  </si>
+  <si>
+    <t>رحيم سلطان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ضياء </t>
+  </si>
+  <si>
+    <t>محمد عمرو</t>
+  </si>
+  <si>
+    <t>مجموعة الساعة /        11     أيام السبت والثلاثاء      الصف / 2 ثانوي</t>
+  </si>
+  <si>
+    <t>امانى اشرف عتمان</t>
+  </si>
+  <si>
+    <t>سما عبد السلام الخولي</t>
+  </si>
+  <si>
+    <t>شهد عبد المنعم الرجال</t>
+  </si>
+  <si>
+    <t>نور عبد الحليم الغطاس</t>
+  </si>
+  <si>
+    <t>نورهان الفيومي</t>
+  </si>
+  <si>
+    <t>هنا علاء الطحان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارين جابر شويل </t>
+  </si>
+  <si>
+    <t>سمية توفيق رمضان</t>
+  </si>
+  <si>
+    <t>شهد رمضان</t>
+  </si>
+  <si>
+    <t>          30             </t>
+  </si>
+  <si>
+    <t>رحيم سنكل</t>
+  </si>
+  <si>
+    <t>          31             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمود خالد </t>
+  </si>
+  <si>
+    <t>          32             </t>
+  </si>
+  <si>
+    <t>رضا أحمد فرج</t>
+  </si>
+  <si>
+    <t>مجموعة الساعة /     12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعة الساعة /       2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعة الساعة /      4       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعة الساعة /      4      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعة الساعة /        3     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموعة الساعة /        11     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  أيام السبت والثلاثاء   </t>
+  </si>
+  <si>
+    <t>الصف / 1 ع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أيام الأثنين والخميس    </t>
+  </si>
+  <si>
+    <t>الصف / 1 ثانوي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أيام الأثنين والخميس      </t>
+  </si>
+  <si>
+    <t>الصف / 3 ثانوي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> أيام الأحد والأربعاء     </t>
+  </si>
+  <si>
+    <t>الصف / 2 ثانوي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أيام السبت والثلاثاء      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,13 +851,195 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -419,20 +1314,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:F24"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>16</v>
       </c>
@@ -443,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>1</v>
       </c>
@@ -454,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>2</v>
       </c>
@@ -465,12 +1360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>1</v>
       </c>
@@ -478,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>2</v>
       </c>
@@ -486,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>3</v>
       </c>
@@ -494,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>4</v>
       </c>
@@ -502,7 +1397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>5</v>
       </c>
@@ -510,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>10</v>
       </c>
@@ -521,7 +1416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>1</v>
       </c>
@@ -532,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>2</v>
       </c>
@@ -543,12 +1438,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>18</v>
       </c>
@@ -559,7 +1454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>1</v>
       </c>
@@ -570,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>2</v>
       </c>
@@ -581,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3</v>
       </c>
@@ -596,4 +1491,2868 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J258"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>179</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>180</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>182</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>205</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>207</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>208</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>209</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>210</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>212</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>213</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>214</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>215</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>217</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>218</v>
+      </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>220</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>221</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>222</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>223</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>226</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>227</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>228</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>229</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>230</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>231</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>232</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>233</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>234</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B44:B1048576 A2:A43 B1">
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:A78">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A99 A139:A1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100:A138">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A35" activeCellId="1" sqref="A1:I1 A35:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCellId="1" sqref="A15 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B75"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" activeCellId="1" sqref="A1 A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>235</v>
+      </c>
+      <c r="B73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>